--- a/Data/FM_Labor_Raw.xlsx
+++ b/Data/FM_Labor_Raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Voigt\Documents\GitHub\FM-Housing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B7B1CC9-391F-41DF-856C-86D1175688C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406D2FB2-8D6D-49AA-8978-BD271DBA79A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{004FD2CE-3239-44AA-B2BE-6C4AA8A2A6F9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="830">
   <si>
     <t>Year</t>
   </si>
@@ -2521,6 +2521,9 @@
   </si>
   <si>
     <t>5118(T)</t>
+  </si>
+  <si>
+    <t>CPI</t>
   </si>
 </sst>
 </file>
@@ -2587,7 +2590,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2706,11 +2709,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2756,6 +2768,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3071,10 +3086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2DAF84-AFDC-483C-AE0F-398408154D46}">
-  <dimension ref="A1:F253"/>
+  <dimension ref="A1:G253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I255" sqref="I255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3084,7 +3099,7 @@
     <col min="6" max="6" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3103,8 +3118,11 @@
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="16" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>2000</v>
       </c>
@@ -3123,8 +3141,11 @@
       <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>169.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2000</v>
       </c>
@@ -3143,8 +3164,11 @@
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
@@ -3163,8 +3187,11 @@
       <c r="F4" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2000</v>
       </c>
@@ -3183,8 +3210,11 @@
       <c r="F5" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>170.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2000</v>
       </c>
@@ -3203,8 +3233,11 @@
       <c r="F6" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>171.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2000</v>
       </c>
@@ -3223,8 +3256,11 @@
       <c r="F7" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>172.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2000</v>
       </c>
@@ -3243,8 +3279,11 @@
       <c r="F8" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>172.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2000</v>
       </c>
@@ -3263,8 +3302,11 @@
       <c r="F9" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>172.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2000</v>
       </c>
@@ -3283,8 +3325,11 @@
       <c r="F10" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>173.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2000</v>
       </c>
@@ -3303,8 +3348,11 @@
       <c r="F11" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>173.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2000</v>
       </c>
@@ -3323,8 +3371,11 @@
       <c r="F12" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>174.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2000</v>
       </c>
@@ -3343,8 +3394,11 @@
       <c r="F13" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>174.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2001</v>
       </c>
@@ -3363,8 +3417,11 @@
       <c r="F14" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>175.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2001</v>
       </c>
@@ -3383,8 +3440,11 @@
       <c r="F15" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2001</v>
       </c>
@@ -3403,8 +3463,11 @@
       <c r="F16" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>176.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2001</v>
       </c>
@@ -3423,8 +3486,11 @@
       <c r="F17" s="11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>176.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2001</v>
       </c>
@@ -3443,8 +3509,11 @@
       <c r="F18" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>177.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2001</v>
       </c>
@@ -3463,8 +3532,11 @@
       <c r="F19" s="11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>177.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2001</v>
       </c>
@@ -3483,8 +3555,11 @@
       <c r="F20" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>177.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2001</v>
       </c>
@@ -3503,8 +3578,11 @@
       <c r="F21" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <v>177.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2001</v>
       </c>
@@ -3523,8 +3601,11 @@
       <c r="F22" s="9" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <v>178.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>2001</v>
       </c>
@@ -3543,8 +3624,11 @@
       <c r="F23" s="11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <v>177.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>2001</v>
       </c>
@@ -3563,8 +3647,11 @@
       <c r="F24" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G24">
+        <v>177.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>2001</v>
       </c>
@@ -3583,8 +3670,11 @@
       <c r="F25" s="11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <v>177.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>2002</v>
       </c>
@@ -3603,8 +3693,11 @@
       <c r="F26" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <v>177.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>2002</v>
       </c>
@@ -3623,8 +3716,11 @@
       <c r="F27" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G27">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>2002</v>
       </c>
@@ -3643,8 +3739,11 @@
       <c r="F28" s="9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G28">
+        <v>178.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>2002</v>
       </c>
@@ -3663,8 +3762,11 @@
       <c r="F29" s="11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29">
+        <v>179.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>2002</v>
       </c>
@@ -3683,8 +3785,11 @@
       <c r="F30" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30">
+        <v>179.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>2002</v>
       </c>
@@ -3703,8 +3808,11 @@
       <c r="F31" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31">
+        <v>179.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>2002</v>
       </c>
@@ -3723,8 +3831,11 @@
       <c r="F32" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>2002</v>
       </c>
@@ -3743,8 +3854,11 @@
       <c r="F33" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G33">
+        <v>180.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>2002</v>
       </c>
@@ -3763,8 +3877,11 @@
       <c r="F34" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G34">
+        <v>180.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>2002</v>
       </c>
@@ -3783,8 +3900,11 @@
       <c r="F35" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G35">
+        <v>181.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>2002</v>
       </c>
@@ -3803,8 +3923,11 @@
       <c r="F36" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36">
+        <v>181.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <v>2002</v>
       </c>
@@ -3823,8 +3946,11 @@
       <c r="F37" s="11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G37">
+        <v>181.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>2003</v>
       </c>
@@ -3843,8 +3969,11 @@
       <c r="F38" s="9" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G38">
+        <v>182.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
         <v>2003</v>
       </c>
@@ -3863,8 +3992,11 @@
       <c r="F39" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G39">
+        <v>183.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>2003</v>
       </c>
@@ -3883,8 +4015,11 @@
       <c r="F40" s="9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G40">
+        <v>183.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>2003</v>
       </c>
@@ -3903,8 +4038,11 @@
       <c r="F41" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G41">
+        <v>183.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>2003</v>
       </c>
@@ -3923,8 +4061,11 @@
       <c r="F42" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G42">
+        <v>182.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
         <v>2003</v>
       </c>
@@ -3943,8 +4084,11 @@
       <c r="F43" s="11" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G43">
+        <v>183.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>2003</v>
       </c>
@@ -3963,8 +4107,11 @@
       <c r="F44" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G44">
+        <v>183.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
         <v>2003</v>
       </c>
@@ -3983,8 +4130,11 @@
       <c r="F45" s="11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G45">
+        <v>184.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>2003</v>
       </c>
@@ -4003,8 +4153,11 @@
       <c r="F46" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G46">
+        <v>185.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
         <v>2003</v>
       </c>
@@ -4023,8 +4176,11 @@
       <c r="F47" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G47">
+        <v>184.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>2003</v>
       </c>
@@ -4043,8 +4199,11 @@
       <c r="F48" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G48">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
         <v>2003</v>
       </c>
@@ -4063,8 +4222,11 @@
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G49">
+        <v>185.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
         <v>2004</v>
       </c>
@@ -4083,8 +4245,11 @@
       <c r="F50" s="9" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G50">
+        <v>186.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
         <v>2004</v>
       </c>
@@ -4103,8 +4268,11 @@
       <c r="F51" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G51">
+        <v>186.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8">
         <v>2004</v>
       </c>
@@ -4123,8 +4291,11 @@
       <c r="F52" s="9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G52">
+        <v>187.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
         <v>2004</v>
       </c>
@@ -4143,8 +4314,11 @@
       <c r="F53" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G53">
+        <v>187.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8">
         <v>2004</v>
       </c>
@@ -4163,8 +4337,11 @@
       <c r="F54" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G54">
+        <v>188.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10">
         <v>2004</v>
       </c>
@@ -4183,8 +4360,11 @@
       <c r="F55" s="11" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G55">
+        <v>188.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8">
         <v>2004</v>
       </c>
@@ -4203,8 +4383,11 @@
       <c r="F56" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G56">
+        <v>189.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10">
         <v>2004</v>
       </c>
@@ -4223,8 +4406,11 @@
       <c r="F57" s="11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G57">
+        <v>189.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>2004</v>
       </c>
@@ -4243,8 +4429,11 @@
       <c r="F58" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G58">
+        <v>189.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10">
         <v>2004</v>
       </c>
@@ -4263,8 +4452,11 @@
       <c r="F59" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G59">
+        <v>190.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <v>2004</v>
       </c>
@@ -4283,8 +4475,11 @@
       <c r="F60" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G60">
+        <v>191.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10">
         <v>2004</v>
       </c>
@@ -4303,8 +4498,11 @@
       <c r="F61" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G61">
+        <v>191.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8">
         <v>2005</v>
       </c>
@@ -4323,8 +4521,11 @@
       <c r="F62" s="9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G62">
+        <v>191.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
         <v>2005</v>
       </c>
@@ -4343,8 +4544,11 @@
       <c r="F63" s="11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G63">
+        <v>192.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8">
         <v>2005</v>
       </c>
@@ -4363,8 +4567,11 @@
       <c r="F64" s="9" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G64">
+        <v>193.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="10">
         <v>2005</v>
       </c>
@@ -4383,8 +4590,11 @@
       <c r="F65" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G65">
+        <v>193.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="8">
         <v>2005</v>
       </c>
@@ -4403,8 +4613,11 @@
       <c r="F66" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G66">
+        <v>193.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="10">
         <v>2005</v>
       </c>
@@ -4423,8 +4636,11 @@
       <c r="F67" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G67">
+        <v>193.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="8">
         <v>2005</v>
       </c>
@@ -4443,8 +4659,11 @@
       <c r="F68" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G68">
+        <v>194.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10">
         <v>2005</v>
       </c>
@@ -4463,8 +4682,11 @@
       <c r="F69" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G69">
+        <v>196.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="8">
         <v>2005</v>
       </c>
@@ -4483,8 +4705,11 @@
       <c r="F70" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G70">
+        <v>198.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="10">
         <v>2005</v>
       </c>
@@ -4503,8 +4728,11 @@
       <c r="F71" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G71">
+        <v>199.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="8">
         <v>2005</v>
       </c>
@@ -4523,8 +4751,11 @@
       <c r="F72" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G72">
+        <v>198.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="10">
         <v>2005</v>
       </c>
@@ -4543,8 +4774,11 @@
       <c r="F73" s="11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G73">
+        <v>198.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="8">
         <v>2006</v>
       </c>
@@ -4563,8 +4797,11 @@
       <c r="F74" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G74">
+        <v>199.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="10">
         <v>2006</v>
       </c>
@@ -4583,8 +4820,11 @@
       <c r="F75" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G75">
+        <v>199.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
         <v>2006</v>
       </c>
@@ -4603,8 +4843,11 @@
       <c r="F76" s="9" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G76">
+        <v>199.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="10">
         <v>2006</v>
       </c>
@@ -4623,8 +4866,11 @@
       <c r="F77" s="11" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G77">
+        <v>200.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
         <v>2006</v>
       </c>
@@ -4643,8 +4889,11 @@
       <c r="F78" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G78">
+        <v>201.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="10">
         <v>2006</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="F79" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G79">
+        <v>201.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="8">
         <v>2006</v>
       </c>
@@ -4683,8 +4935,11 @@
       <c r="F80" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G80">
+        <v>202.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="10">
         <v>2006</v>
       </c>
@@ -4703,8 +4958,11 @@
       <c r="F81" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G81">
+        <v>203.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="8">
         <v>2006</v>
       </c>
@@ -4723,8 +4981,11 @@
       <c r="F82" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G82">
+        <v>202.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="10">
         <v>2006</v>
       </c>
@@ -4743,8 +5004,11 @@
       <c r="F83" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G83">
+        <v>201.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="8">
         <v>2006</v>
       </c>
@@ -4763,8 +5027,11 @@
       <c r="F84" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G84">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="10">
         <v>2006</v>
       </c>
@@ -4783,8 +5050,11 @@
       <c r="F85" s="11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G85">
+        <v>203.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="8">
         <v>2007</v>
       </c>
@@ -4803,8 +5073,11 @@
       <c r="F86" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G86">
+        <v>203.43700000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="10">
         <v>2007</v>
       </c>
@@ -4823,8 +5096,11 @@
       <c r="F87" s="11" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G87">
+        <v>204.226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="8">
         <v>2007</v>
       </c>
@@ -4843,8 +5119,11 @@
       <c r="F88" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G88">
+        <v>205.28800000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="10">
         <v>2007</v>
       </c>
@@ -4863,8 +5142,11 @@
       <c r="F89" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G89">
+        <v>205.904</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8">
         <v>2007</v>
       </c>
@@ -4883,8 +5165,11 @@
       <c r="F90" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G90">
+        <v>206.755</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="10">
         <v>2007</v>
       </c>
@@ -4903,8 +5188,11 @@
       <c r="F91" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G91">
+        <v>207.23400000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="8">
         <v>2007</v>
       </c>
@@ -4923,8 +5211,11 @@
       <c r="F92" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G92">
+        <v>207.60300000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="10">
         <v>2007</v>
       </c>
@@ -4943,8 +5234,11 @@
       <c r="F93" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G93">
+        <v>207.667</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="8">
         <v>2007</v>
       </c>
@@ -4963,8 +5257,11 @@
       <c r="F94" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G94">
+        <v>208.547</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="10">
         <v>2007</v>
       </c>
@@ -4983,8 +5280,11 @@
       <c r="F95" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G95">
+        <v>209.19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="8">
         <v>2007</v>
       </c>
@@ -5003,8 +5303,11 @@
       <c r="F96" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G96">
+        <v>210.834</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="10">
         <v>2007</v>
       </c>
@@ -5023,8 +5326,11 @@
       <c r="F97" s="11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G97">
+        <v>211.44499999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8">
         <v>2008</v>
       </c>
@@ -5043,8 +5349,11 @@
       <c r="F98" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G98">
+        <v>212.17400000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="10">
         <v>2008</v>
       </c>
@@ -5063,8 +5372,11 @@
       <c r="F99" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G99">
+        <v>212.68700000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="8">
         <v>2008</v>
       </c>
@@ -5083,8 +5395,11 @@
       <c r="F100" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G100">
+        <v>213.44800000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="10">
         <v>2008</v>
       </c>
@@ -5103,8 +5418,11 @@
       <c r="F101" s="11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G101">
+        <v>213.94200000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="8">
         <v>2008</v>
       </c>
@@ -5123,8 +5441,11 @@
       <c r="F102" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G102">
+        <v>215.208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="10">
         <v>2008</v>
       </c>
@@ -5143,8 +5464,11 @@
       <c r="F103" s="11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G103">
+        <v>217.46299999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="8">
         <v>2008</v>
       </c>
@@ -5163,8 +5487,11 @@
       <c r="F104" s="9" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G104">
+        <v>219.01599999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="10">
         <v>2008</v>
       </c>
@@ -5183,8 +5510,11 @@
       <c r="F105" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G105">
+        <v>218.69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="8">
         <v>2008</v>
       </c>
@@ -5203,8 +5533,11 @@
       <c r="F106" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G106">
+        <v>218.87700000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="10">
         <v>2008</v>
       </c>
@@ -5223,8 +5556,11 @@
       <c r="F107" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G107">
+        <v>216.995</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="8">
         <v>2008</v>
       </c>
@@ -5243,8 +5579,11 @@
       <c r="F108" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G108">
+        <v>213.15299999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="10">
         <v>2008</v>
       </c>
@@ -5263,8 +5602,11 @@
       <c r="F109" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G109">
+        <v>211.398</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="8">
         <v>2009</v>
       </c>
@@ -5283,8 +5625,11 @@
       <c r="F110" s="9" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G110">
+        <v>211.93299999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="10">
         <v>2009</v>
       </c>
@@ -5303,8 +5648,11 @@
       <c r="F111" s="11" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G111">
+        <v>212.70500000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="8">
         <v>2009</v>
       </c>
@@ -5323,8 +5671,11 @@
       <c r="F112" s="9" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G112">
+        <v>212.495</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="10">
         <v>2009</v>
       </c>
@@ -5343,8 +5694,11 @@
       <c r="F113" s="11" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G113">
+        <v>212.709</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="8">
         <v>2009</v>
       </c>
@@ -5363,8 +5717,11 @@
       <c r="F114" s="9" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G114">
+        <v>213.02199999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="10">
         <v>2009</v>
       </c>
@@ -5383,8 +5740,11 @@
       <c r="F115" s="11" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G115">
+        <v>214.79</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="8">
         <v>2009</v>
       </c>
@@ -5403,8 +5763,11 @@
       <c r="F116" s="9" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G116">
+        <v>214.726</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="10">
         <v>2009</v>
       </c>
@@ -5423,8 +5786,11 @@
       <c r="F117" s="11" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G117">
+        <v>215.44499999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="8">
         <v>2009</v>
       </c>
@@ -5443,8 +5809,11 @@
       <c r="F118" s="9" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G118">
+        <v>215.86099999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="10">
         <v>2009</v>
       </c>
@@ -5463,8 +5832,11 @@
       <c r="F119" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G119">
+        <v>216.50899999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="8">
         <v>2009</v>
       </c>
@@ -5483,8 +5855,11 @@
       <c r="F120" s="9" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G120">
+        <v>217.23400000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="10">
         <v>2009</v>
       </c>
@@ -5503,8 +5878,11 @@
       <c r="F121" s="11" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G121">
+        <v>217.34700000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="8">
         <v>2010</v>
       </c>
@@ -5523,8 +5901,11 @@
       <c r="F122" s="9" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G122">
+        <v>217.488</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="10">
         <v>2010</v>
       </c>
@@ -5543,8 +5924,11 @@
       <c r="F123" s="11" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G123">
+        <v>217.28100000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="8">
         <v>2010</v>
       </c>
@@ -5563,8 +5947,11 @@
       <c r="F124" s="9" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G124">
+        <v>217.35300000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="10">
         <v>2010</v>
       </c>
@@ -5583,8 +5970,11 @@
       <c r="F125" s="11" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G125">
+        <v>217.40299999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="8">
         <v>2010</v>
       </c>
@@ -5603,8 +5993,11 @@
       <c r="F126" s="9" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G126">
+        <v>217.29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="10">
         <v>2010</v>
       </c>
@@ -5623,8 +6016,11 @@
       <c r="F127" s="11" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G127">
+        <v>217.19900000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="8">
         <v>2010</v>
       </c>
@@ -5643,8 +6039,11 @@
       <c r="F128" s="9" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G128">
+        <v>217.60499999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="10">
         <v>2010</v>
       </c>
@@ -5663,8 +6062,11 @@
       <c r="F129" s="11" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G129">
+        <v>217.923</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="8">
         <v>2010</v>
       </c>
@@ -5683,8 +6085,11 @@
       <c r="F130" s="9" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G130">
+        <v>218.27500000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="10">
         <v>2010</v>
       </c>
@@ -5703,8 +6108,11 @@
       <c r="F131" s="11" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G131">
+        <v>219.035</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="8">
         <v>2010</v>
       </c>
@@ -5723,8 +6131,11 @@
       <c r="F132" s="9" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G132">
+        <v>219.59</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="10">
         <v>2010</v>
       </c>
@@ -5743,8 +6154,11 @@
       <c r="F133" s="11" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G133">
+        <v>220.47200000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="8">
         <v>2011</v>
       </c>
@@ -5763,8 +6177,11 @@
       <c r="F134" s="9" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G134">
+        <v>221.18700000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="10">
         <v>2011</v>
       </c>
@@ -5783,8 +6200,11 @@
       <c r="F135" s="11" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G135">
+        <v>221.898</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="8">
         <v>2011</v>
       </c>
@@ -5803,8 +6223,11 @@
       <c r="F136" s="9" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G136">
+        <v>223.04599999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="10">
         <v>2011</v>
       </c>
@@ -5823,8 +6246,11 @@
       <c r="F137" s="11" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G137">
+        <v>224.09299999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="8">
         <v>2011</v>
       </c>
@@ -5843,8 +6269,11 @@
       <c r="F138" s="9" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G138">
+        <v>224.80600000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="10">
         <v>2011</v>
       </c>
@@ -5863,8 +6292,11 @@
       <c r="F139" s="11" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G139">
+        <v>224.80600000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="8">
         <v>2011</v>
       </c>
@@ -5883,8 +6315,11 @@
       <c r="F140" s="9" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G140">
+        <v>225.39500000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="10">
         <v>2011</v>
       </c>
@@ -5903,8 +6338,11 @@
       <c r="F141" s="11" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G141">
+        <v>226.10599999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="8">
         <v>2011</v>
       </c>
@@ -5923,8 +6361,11 @@
       <c r="F142" s="9" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G142">
+        <v>226.59700000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="10">
         <v>2011</v>
       </c>
@@ -5943,8 +6384,11 @@
       <c r="F143" s="11" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G143">
+        <v>226.75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="8">
         <v>2011</v>
       </c>
@@ -5963,8 +6407,11 @@
       <c r="F144" s="9" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G144">
+        <v>227.16900000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="10">
         <v>2011</v>
       </c>
@@ -5983,8 +6430,11 @@
       <c r="F145" s="11" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G145">
+        <v>227.22300000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="8">
         <v>2012</v>
       </c>
@@ -6003,8 +6453,11 @@
       <c r="F146" s="9" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G146">
+        <v>227.84200000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="10">
         <v>2012</v>
       </c>
@@ -6023,8 +6476,11 @@
       <c r="F147" s="11" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G147">
+        <v>228.32900000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="8">
         <v>2012</v>
       </c>
@@ -6043,8 +6499,11 @@
       <c r="F148" s="9" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G148">
+        <v>228.80699999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="10">
         <v>2012</v>
       </c>
@@ -6063,8 +6522,11 @@
       <c r="F149" s="11" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G149">
+        <v>229.18700000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="8">
         <v>2012</v>
       </c>
@@ -6083,8 +6545,11 @@
       <c r="F150" s="9" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G150">
+        <v>228.71299999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="10">
         <v>2012</v>
       </c>
@@ -6103,8 +6568,11 @@
       <c r="F151" s="11" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G151">
+        <v>228.524</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="8">
         <v>2012</v>
       </c>
@@ -6123,8 +6591,11 @@
       <c r="F152" s="9" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G152">
+        <v>228.59</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="10">
         <v>2012</v>
       </c>
@@ -6143,8 +6614,11 @@
       <c r="F153" s="11" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G153">
+        <v>229.91800000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="8">
         <v>2012</v>
       </c>
@@ -6163,8 +6637,11 @@
       <c r="F154" s="9" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G154">
+        <v>231.01499999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="10">
         <v>2012</v>
       </c>
@@ -6183,8 +6660,11 @@
       <c r="F155" s="11" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G155">
+        <v>231.63800000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="8">
         <v>2012</v>
       </c>
@@ -6203,8 +6683,11 @@
       <c r="F156" s="9" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G156">
+        <v>231.249</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="10">
         <v>2012</v>
       </c>
@@ -6223,8 +6706,11 @@
       <c r="F157" s="11" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G157">
+        <v>231.221</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="8">
         <v>2013</v>
       </c>
@@ -6243,8 +6729,11 @@
       <c r="F158" s="9" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G158">
+        <v>231.679</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="10">
         <v>2013</v>
       </c>
@@ -6263,8 +6752,11 @@
       <c r="F159" s="11" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G159">
+        <v>232.93700000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="8">
         <v>2013</v>
       </c>
@@ -6283,8 +6775,11 @@
       <c r="F160" s="9" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G160">
+        <v>232.28200000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="10">
         <v>2013</v>
       </c>
@@ -6303,8 +6798,11 @@
       <c r="F161" s="11" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G161">
+        <v>231.797</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="8">
         <v>2013</v>
       </c>
@@ -6323,8 +6821,11 @@
       <c r="F162" s="9" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G162">
+        <v>231.893</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="10">
         <v>2013</v>
       </c>
@@ -6343,8 +6844,11 @@
       <c r="F163" s="11" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G163">
+        <v>232.44499999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="8">
         <v>2013</v>
       </c>
@@ -6363,8 +6867,11 @@
       <c r="F164" s="9" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G164">
+        <v>232.9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="10">
         <v>2013</v>
       </c>
@@ -6383,8 +6890,11 @@
       <c r="F165" s="11" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G165">
+        <v>233.45599999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="8">
         <v>2013</v>
       </c>
@@ -6403,8 +6913,11 @@
       <c r="F166" s="9" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G166">
+        <v>233.54400000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="10">
         <v>2013</v>
       </c>
@@ -6423,8 +6936,11 @@
       <c r="F167" s="11" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G167">
+        <v>233.66900000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="8">
         <v>2013</v>
       </c>
@@ -6443,8 +6959,11 @@
       <c r="F168" s="9" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G168">
+        <v>234.1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="10">
         <v>2013</v>
       </c>
@@ -6463,8 +6982,11 @@
       <c r="F169" s="11" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G169">
+        <v>234.71899999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="8">
         <v>2014</v>
       </c>
@@ -6483,8 +7005,11 @@
       <c r="F170" s="9" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G170">
+        <v>235.28800000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="10">
         <v>2014</v>
       </c>
@@ -6503,8 +7028,11 @@
       <c r="F171" s="11" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G171">
+        <v>235.547</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="8">
         <v>2014</v>
       </c>
@@ -6523,8 +7051,11 @@
       <c r="F172" s="9" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G172">
+        <v>236.02799999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="10">
         <v>2014</v>
       </c>
@@ -6543,8 +7074,11 @@
       <c r="F173" s="11" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G173">
+        <v>236.46799999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="8">
         <v>2014</v>
       </c>
@@ -6563,8 +7097,11 @@
       <c r="F174" s="9" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G174">
+        <v>236.91800000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="10">
         <v>2014</v>
       </c>
@@ -6583,8 +7120,11 @@
       <c r="F175" s="11" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G175">
+        <v>237.23099999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="8">
         <v>2014</v>
       </c>
@@ -6603,8 +7143,11 @@
       <c r="F176" s="9" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G176">
+        <v>237.49799999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="10">
         <v>2014</v>
       </c>
@@ -6623,8 +7166,11 @@
       <c r="F177" s="11" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G177">
+        <v>237.46</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="8">
         <v>2014</v>
       </c>
@@ -6643,8 +7189,11 @@
       <c r="F178" s="9" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G178">
+        <v>237.477</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="10">
         <v>2014</v>
       </c>
@@ -6663,8 +7212,11 @@
       <c r="F179" s="11" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G179">
+        <v>237.43</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="8">
         <v>2014</v>
       </c>
@@ -6683,8 +7235,11 @@
       <c r="F180" s="9" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G180">
+        <v>236.983</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="10">
         <v>2014</v>
       </c>
@@ -6703,8 +7258,11 @@
       <c r="F181" s="11" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G181">
+        <v>236.25200000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="8">
         <v>2015</v>
       </c>
@@ -6723,8 +7281,11 @@
       <c r="F182" s="9" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G182">
+        <v>234.74700000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="10">
         <v>2015</v>
       </c>
@@ -6743,8 +7304,11 @@
       <c r="F183" s="11" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G183">
+        <v>235.34200000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="8">
         <v>2015</v>
       </c>
@@ -6763,8 +7327,11 @@
       <c r="F184" s="9" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G184">
+        <v>235.976</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="10">
         <v>2015</v>
       </c>
@@ -6783,8 +7350,11 @@
       <c r="F185" s="11" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G185">
+        <v>236.22200000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="8">
         <v>2015</v>
       </c>
@@ -6803,8 +7373,11 @@
       <c r="F186" s="9" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G186">
+        <v>237.001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="10">
         <v>2015</v>
       </c>
@@ -6823,8 +7396,11 @@
       <c r="F187" s="11" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G187">
+        <v>237.65700000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="8">
         <v>2015</v>
       </c>
@@ -6843,8 +7419,11 @@
       <c r="F188" s="9" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G188">
+        <v>238.03399999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="10">
         <v>2015</v>
       </c>
@@ -6863,8 +7442,11 @@
       <c r="F189" s="11" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G189">
+        <v>238.03299999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="8">
         <v>2015</v>
       </c>
@@ -6883,8 +7465,11 @@
       <c r="F190" s="9" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G190">
+        <v>237.49799999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="10">
         <v>2015</v>
       </c>
@@ -6903,8 +7488,11 @@
       <c r="F191" s="11" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G191">
+        <v>237.733</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="8">
         <v>2015</v>
       </c>
@@ -6923,8 +7511,11 @@
       <c r="F192" s="9" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G192">
+        <v>238.017</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="10">
         <v>2015</v>
       </c>
@@ -6943,8 +7534,11 @@
       <c r="F193" s="11" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G193">
+        <v>237.761</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="8">
         <v>2016</v>
       </c>
@@ -6963,8 +7557,11 @@
       <c r="F194" s="9" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G194">
+        <v>237.65199999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="10">
         <v>2016</v>
       </c>
@@ -6983,8 +7580,11 @@
       <c r="F195" s="11" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G195">
+        <v>237.33600000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="8">
         <v>2016</v>
       </c>
@@ -7003,8 +7603,11 @@
       <c r="F196" s="9" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G196">
+        <v>238.08</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="10">
         <v>2016</v>
       </c>
@@ -7023,8 +7626,11 @@
       <c r="F197" s="11" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G197">
+        <v>238.99199999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="8">
         <v>2016</v>
       </c>
@@ -7043,8 +7649,11 @@
       <c r="F198" s="9" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G198">
+        <v>239.55699999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="10">
         <v>2016</v>
       </c>
@@ -7063,8 +7672,11 @@
       <c r="F199" s="11" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G199">
+        <v>240.22200000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="8">
         <v>2016</v>
       </c>
@@ -7083,8 +7695,11 @@
       <c r="F200" s="9" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G200">
+        <v>240.101</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="10">
         <v>2016</v>
       </c>
@@ -7103,8 +7718,11 @@
       <c r="F201" s="11" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G201">
+        <v>240.54499999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="8">
         <v>2016</v>
       </c>
@@ -7123,8 +7741,11 @@
       <c r="F202" s="9" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G202">
+        <v>241.17599999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="10">
         <v>2016</v>
       </c>
@@ -7143,8 +7764,11 @@
       <c r="F203" s="11" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G203">
+        <v>241.74100000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="8">
         <v>2016</v>
       </c>
@@ -7163,8 +7787,11 @@
       <c r="F204" s="9" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G204">
+        <v>242.02600000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="10">
         <v>2016</v>
       </c>
@@ -7183,8 +7810,11 @@
       <c r="F205" s="11" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G205">
+        <v>242.637</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="8">
         <v>2017</v>
       </c>
@@ -7203,8 +7833,11 @@
       <c r="F206" s="9" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G206">
+        <v>243.62</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="10">
         <v>2017</v>
       </c>
@@ -7223,8 +7856,11 @@
       <c r="F207" s="11" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G207">
+        <v>243.87200000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="8">
         <v>2017</v>
       </c>
@@ -7243,8 +7879,11 @@
       <c r="F208" s="9" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G208">
+        <v>243.76599999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="10">
         <v>2017</v>
       </c>
@@ -7263,8 +7902,11 @@
       <c r="F209" s="11" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G209">
+        <v>244.274</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="8">
         <v>2017</v>
       </c>
@@ -7283,8 +7925,11 @@
       <c r="F210" s="9" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G210">
+        <v>244.06899999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="10">
         <v>2017</v>
       </c>
@@ -7303,8 +7948,11 @@
       <c r="F211" s="11" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G211">
+        <v>244.21799999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="8">
         <v>2017</v>
       </c>
@@ -7323,8 +7971,11 @@
       <c r="F212" s="9" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G212">
+        <v>244.28</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="10">
         <v>2017</v>
       </c>
@@ -7343,8 +7994,11 @@
       <c r="F213" s="11" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G213">
+        <v>245.20500000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="8">
         <v>2017</v>
       </c>
@@ -7363,8 +8017,11 @@
       <c r="F214" s="9" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G214">
+        <v>246.55099999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="10">
         <v>2017</v>
       </c>
@@ -7383,8 +8040,11 @@
       <c r="F215" s="11" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G215">
+        <v>246.65700000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="8">
         <v>2017</v>
       </c>
@@ -7403,8 +8063,11 @@
       <c r="F216" s="9" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G216">
+        <v>247.37799999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="10">
         <v>2017</v>
       </c>
@@ -7423,8 +8086,11 @@
       <c r="F217" s="11" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G217">
+        <v>247.73599999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="8">
         <v>2018</v>
       </c>
@@ -7443,8 +8109,11 @@
       <c r="F218" s="9" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G218">
+        <v>248.721</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="10">
         <v>2018</v>
       </c>
@@ -7463,8 +8132,11 @@
       <c r="F219" s="11" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G219">
+        <v>249.3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="8">
         <v>2018</v>
       </c>
@@ -7483,8 +8155,11 @@
       <c r="F220" s="9" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G220">
+        <v>249.517</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="10">
         <v>2018</v>
       </c>
@@ -7503,8 +8178,11 @@
       <c r="F221" s="11" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G221">
+        <v>250.27500000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="8">
         <v>2018</v>
       </c>
@@ -7523,8 +8201,11 @@
       <c r="F222" s="9" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G222">
+        <v>250.786</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="10">
         <v>2018</v>
       </c>
@@ -7543,8 +8224,11 @@
       <c r="F223" s="11" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G223">
+        <v>251.15199999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="8">
         <v>2018</v>
       </c>
@@ -7563,8 +8247,11 @@
       <c r="F224" s="9" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G224">
+        <v>251.345</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="10">
         <v>2018</v>
       </c>
@@ -7583,8 +8270,11 @@
       <c r="F225" s="11" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G225">
+        <v>251.73500000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="8">
         <v>2018</v>
       </c>
@@ -7603,8 +8293,11 @@
       <c r="F226" s="9" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G226">
+        <v>252.18299999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="10">
         <v>2018</v>
       </c>
@@ -7623,8 +8316,11 @@
       <c r="F227" s="11" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G227">
+        <v>252.899</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="8">
         <v>2018</v>
       </c>
@@ -7643,8 +8339,11 @@
       <c r="F228" s="9" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G228">
+        <v>252.822</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="10">
         <v>2018</v>
       </c>
@@ -7663,8 +8362,11 @@
       <c r="F229" s="11" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G229">
+        <v>252.49299999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="8">
         <v>2019</v>
       </c>
@@ -7683,8 +8385,11 @@
       <c r="F230" s="9" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G230">
+        <v>252.441</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="10">
         <v>2019</v>
       </c>
@@ -7703,8 +8408,11 @@
       <c r="F231" s="11" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G231">
+        <v>252.96899999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="8">
         <v>2019</v>
       </c>
@@ -7723,8 +8431,11 @@
       <c r="F232" s="9" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G232">
+        <v>254.14699999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="10">
         <v>2019</v>
       </c>
@@ -7743,8 +8454,11 @@
       <c r="F233" s="11" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G233">
+        <v>255.32599999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="8">
         <v>2019</v>
       </c>
@@ -7763,8 +8477,11 @@
       <c r="F234" s="9" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G234">
+        <v>255.37100000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="10">
         <v>2019</v>
       </c>
@@ -7783,8 +8500,11 @@
       <c r="F235" s="11" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G235">
+        <v>255.423</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="8">
         <v>2019</v>
       </c>
@@ -7803,8 +8523,11 @@
       <c r="F236" s="9" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G236">
+        <v>255.92500000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="10">
         <v>2019</v>
       </c>
@@ -7823,8 +8546,11 @@
       <c r="F237" s="11" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G237">
+        <v>256.11799999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="8">
         <v>2019</v>
       </c>
@@ -7843,8 +8569,11 @@
       <c r="F238" s="9" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G238">
+        <v>256.53199999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="10">
         <v>2019</v>
       </c>
@@ -7863,8 +8592,11 @@
       <c r="F239" s="11" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G239">
+        <v>257.387</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="8">
         <v>2019</v>
       </c>
@@ -7883,8 +8615,11 @@
       <c r="F240" s="9" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G240">
+        <v>257.98899999999998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="10">
         <v>2019</v>
       </c>
@@ -7903,8 +8638,11 @@
       <c r="F241" s="11" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G241">
+        <v>258.20299999999997</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="8">
         <v>2020</v>
       </c>
@@ -7923,8 +8661,11 @@
       <c r="F242" s="9" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G242">
+        <v>258.68700000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="10">
         <v>2020</v>
       </c>
@@ -7943,8 +8684,11 @@
       <c r="F243" s="11" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G243">
+        <v>258.82400000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="8">
         <v>2020</v>
       </c>
@@ -7963,8 +8707,11 @@
       <c r="F244" s="9" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G244">
+        <v>257.98899999999998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="10">
         <v>2020</v>
       </c>
@@ -7983,8 +8730,11 @@
       <c r="F245" s="11" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G245">
+        <v>256.19200000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="8">
         <v>2020</v>
       </c>
@@ -8003,8 +8753,11 @@
       <c r="F246" s="9" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G246">
+        <v>255.94200000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="10">
         <v>2020</v>
       </c>
@@ -8023,8 +8776,11 @@
       <c r="F247" s="11" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G247">
+        <v>257.28199999999998</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="8">
         <v>2020</v>
       </c>
@@ -8043,8 +8799,11 @@
       <c r="F248" s="9" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G248">
+        <v>258.60399999999998</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="10">
         <v>2020</v>
       </c>
@@ -8063,8 +8822,11 @@
       <c r="F249" s="11" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G249">
+        <v>259.51100000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="8">
         <v>2020</v>
       </c>
@@ -8083,8 +8845,11 @@
       <c r="F250" s="9" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G250">
+        <v>260.149</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="10">
         <v>2020</v>
       </c>
@@ -8103,8 +8868,11 @@
       <c r="F251" s="11" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G251">
+        <v>260.46199999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="8">
         <v>2020</v>
       </c>
@@ -8123,8 +8891,11 @@
       <c r="F252" s="9" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G252">
+        <v>260.92700000000002</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="12">
         <v>2020</v>
       </c>
@@ -8142,6 +8913,9 @@
       </c>
       <c r="F253" s="15" t="s">
         <v>443</v>
+      </c>
+      <c r="G253">
+        <v>261.56</v>
       </c>
     </row>
   </sheetData>
